--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.845541</v>
+        <v>3.229813</v>
       </c>
       <c r="H2">
-        <v>5.536623</v>
+        <v>9.689439</v>
       </c>
       <c r="I2">
-        <v>0.5735115044949967</v>
+        <v>0.6314649025465834</v>
       </c>
       <c r="J2">
-        <v>0.5847017168716782</v>
+        <v>0.6663778861971119</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>7.283749910994666</v>
+        <v>9.388570076402331</v>
       </c>
       <c r="R2">
-        <v>65.55374919895199</v>
+        <v>84.497130687621</v>
       </c>
       <c r="S2">
-        <v>0.004635285064774084</v>
+        <v>0.003486018247179916</v>
       </c>
       <c r="T2">
-        <v>0.004863363838974283</v>
+        <v>0.003748069640202086</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.845541</v>
+        <v>3.229813</v>
       </c>
       <c r="H3">
-        <v>5.536623</v>
+        <v>9.689439</v>
       </c>
       <c r="I3">
-        <v>0.5735115044949967</v>
+        <v>0.6314649025465834</v>
       </c>
       <c r="J3">
-        <v>0.5847017168716782</v>
+        <v>0.6663778861971119</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>342.9065825796843</v>
+        <v>600.1081190834763</v>
       </c>
       <c r="R3">
-        <v>3086.159243217159</v>
+        <v>5400.973071751287</v>
       </c>
       <c r="S3">
-        <v>0.2182213530485253</v>
+        <v>0.2228228405797296</v>
       </c>
       <c r="T3">
-        <v>0.228958914603446</v>
+        <v>0.2395729065951073</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.845541</v>
+        <v>3.229813</v>
       </c>
       <c r="H4">
-        <v>5.536623</v>
+        <v>9.689439</v>
       </c>
       <c r="I4">
-        <v>0.5735115044949967</v>
+        <v>0.6314649025465834</v>
       </c>
       <c r="J4">
-        <v>0.5847017168716782</v>
+        <v>0.6663778861971119</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>216.5547185235643</v>
+        <v>442.7159865838126</v>
       </c>
       <c r="R4">
-        <v>1948.992466712079</v>
+        <v>3984.443879254313</v>
       </c>
       <c r="S4">
-        <v>0.1378126466098773</v>
+        <v>0.1643824347041379</v>
       </c>
       <c r="T4">
-        <v>0.1445937051788389</v>
+        <v>0.1767394113313954</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.845541</v>
+        <v>3.229813</v>
       </c>
       <c r="H5">
-        <v>5.536623</v>
+        <v>9.689439</v>
       </c>
       <c r="I5">
-        <v>0.5735115044949967</v>
+        <v>0.6314649025465834</v>
       </c>
       <c r="J5">
-        <v>0.5847017168716782</v>
+        <v>0.6663778861971119</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>76.51349811853399</v>
+        <v>94.35167611327449</v>
       </c>
       <c r="R5">
-        <v>459.0809887112039</v>
+        <v>566.110056679647</v>
       </c>
       <c r="S5">
-        <v>0.04869220929003974</v>
+        <v>0.03503320121235354</v>
       </c>
       <c r="T5">
-        <v>0.03405873663888509</v>
+        <v>0.02511114755243302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.845541</v>
+        <v>3.229813</v>
       </c>
       <c r="H6">
-        <v>5.536623</v>
+        <v>9.689439</v>
       </c>
       <c r="I6">
-        <v>0.5735115044949967</v>
+        <v>0.6314649025465834</v>
       </c>
       <c r="J6">
-        <v>0.5847017168716782</v>
+        <v>0.6663778861971119</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>257.9404734614123</v>
+        <v>554.1015850305386</v>
       </c>
       <c r="R6">
-        <v>2321.464261152711</v>
+        <v>4986.914265274848</v>
       </c>
       <c r="S6">
-        <v>0.1641500104817802</v>
+        <v>0.2057404078031824</v>
       </c>
       <c r="T6">
-        <v>0.1722269966115338</v>
+        <v>0.2212063510779741</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8811659999999999</v>
+        <v>0.881166</v>
       </c>
       <c r="H7">
         <v>2.643498</v>
       </c>
       <c r="I7">
-        <v>0.2738269365838191</v>
+        <v>0.1722779003977514</v>
       </c>
       <c r="J7">
-        <v>0.2791697789693912</v>
+        <v>0.1818029515853594</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>3.477675529327999</v>
+        <v>2.561414156157999</v>
       </c>
       <c r="R7">
-        <v>31.29907976395199</v>
+        <v>23.052727405422</v>
       </c>
       <c r="S7">
-        <v>0.002213148122630015</v>
+        <v>0.0009510645832419827</v>
       </c>
       <c r="T7">
-        <v>0.002322045871933278</v>
+        <v>0.001022558127228515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8811659999999999</v>
+        <v>0.881166</v>
       </c>
       <c r="H8">
         <v>2.643498</v>
       </c>
       <c r="I8">
-        <v>0.2738269365838191</v>
+        <v>0.1722779003977514</v>
       </c>
       <c r="J8">
-        <v>0.2791697789693912</v>
+        <v>0.1818029515853594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>163.723061013226</v>
@@ -948,10 +948,10 @@
         <v>1473.507549119034</v>
       </c>
       <c r="S8">
-        <v>0.104191257078741</v>
+        <v>0.06079110807414485</v>
       </c>
       <c r="T8">
-        <v>0.1093179782759961</v>
+        <v>0.06536090473745208</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8811659999999999</v>
+        <v>0.881166</v>
       </c>
       <c r="H9">
         <v>2.643498</v>
       </c>
       <c r="I9">
-        <v>0.2738269365838191</v>
+        <v>0.1722779003977514</v>
       </c>
       <c r="J9">
-        <v>0.2791697789693912</v>
+        <v>0.1818029515853594</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>103.395511182106</v>
+        <v>120.782929238972</v>
       </c>
       <c r="R9">
-        <v>930.559600638954</v>
+        <v>1087.046363150748</v>
       </c>
       <c r="S9">
-        <v>0.06579957777293441</v>
+        <v>0.04484724423937436</v>
       </c>
       <c r="T9">
-        <v>0.06903723992998084</v>
+        <v>0.04821850680681524</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8811659999999999</v>
+        <v>0.881166</v>
       </c>
       <c r="H10">
         <v>2.643498</v>
       </c>
       <c r="I10">
-        <v>0.2738269365838191</v>
+        <v>0.1722779003977514</v>
       </c>
       <c r="J10">
-        <v>0.2791697789693912</v>
+        <v>0.1818029515853594</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>36.53188581728399</v>
+        <v>25.741270170759</v>
       </c>
       <c r="R10">
-        <v>219.191314903704</v>
+        <v>154.447621024554</v>
       </c>
       <c r="S10">
-        <v>0.02324842379078392</v>
+        <v>0.009557849256128672</v>
       </c>
       <c r="T10">
-        <v>0.01626157355980703</v>
+        <v>0.006850888718383136</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8811659999999999</v>
+        <v>0.881166</v>
       </c>
       <c r="H11">
         <v>2.643498</v>
       </c>
       <c r="I11">
-        <v>0.2738269365838191</v>
+        <v>0.1722779003977514</v>
       </c>
       <c r="J11">
-        <v>0.2791697789693912</v>
+        <v>0.1818029515853594</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>123.155419054954</v>
+        <v>151.171438493504</v>
       </c>
       <c r="R11">
-        <v>1108.398771494586</v>
+        <v>1360.542946441536</v>
       </c>
       <c r="S11">
-        <v>0.07837452981872976</v>
+        <v>0.05613063424486156</v>
       </c>
       <c r="T11">
-        <v>0.08223094133167393</v>
+        <v>0.06035009319548038</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.09689233333333334</v>
+        <v>0.1066033333333333</v>
       </c>
       <c r="H12">
-        <v>0.290677</v>
+        <v>0.31981</v>
       </c>
       <c r="I12">
-        <v>0.0301097986249185</v>
+        <v>0.02084215510138645</v>
       </c>
       <c r="J12">
-        <v>0.03069729345037739</v>
+        <v>0.02199449439587765</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>0.3824025173608889</v>
+        <v>0.309879508621111</v>
       </c>
       <c r="R12">
-        <v>3.441622656248</v>
+        <v>2.78891557759</v>
       </c>
       <c r="S12">
-        <v>0.0002433560596004707</v>
+        <v>0.0001150596536735108</v>
       </c>
       <c r="T12">
-        <v>0.0002553303720736499</v>
+        <v>0.000123708932130439</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.09689233333333334</v>
+        <v>0.1066033333333333</v>
       </c>
       <c r="H13">
-        <v>0.290677</v>
+        <v>0.31981</v>
       </c>
       <c r="I13">
-        <v>0.0301097986249185</v>
+        <v>0.02084215510138645</v>
       </c>
       <c r="J13">
-        <v>0.03069729345037739</v>
+        <v>0.02199449439587765</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>18.00286143819345</v>
+        <v>19.80719188841444</v>
       </c>
       <c r="R13">
-        <v>162.025752943741</v>
+        <v>178.26472699573</v>
       </c>
       <c r="S13">
-        <v>0.01145679022033579</v>
+        <v>0.007354499331261935</v>
       </c>
       <c r="T13">
-        <v>0.01202052052671563</v>
+        <v>0.007907352660786788</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.09689233333333334</v>
+        <v>0.1066033333333333</v>
       </c>
       <c r="H14">
-        <v>0.290677</v>
+        <v>0.31981</v>
       </c>
       <c r="I14">
-        <v>0.0301097986249185</v>
+        <v>0.02084215510138645</v>
       </c>
       <c r="J14">
-        <v>0.03069729345037739</v>
+        <v>0.02199449439587765</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>11.36929061564678</v>
+        <v>14.61230104956222</v>
       </c>
       <c r="R14">
-        <v>102.323615540821</v>
+        <v>131.51070944606</v>
       </c>
       <c r="S14">
-        <v>0.007235270792072951</v>
+        <v>0.005425613024936773</v>
       </c>
       <c r="T14">
-        <v>0.007591281624244484</v>
+        <v>0.005833467875476956</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.09689233333333334</v>
+        <v>0.1066033333333333</v>
       </c>
       <c r="H15">
-        <v>0.290677</v>
+        <v>0.31981</v>
       </c>
       <c r="I15">
-        <v>0.0301097986249185</v>
+        <v>0.02084215510138645</v>
       </c>
       <c r="J15">
-        <v>0.03069729345037739</v>
+        <v>0.02199449439587765</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>4.017017971532667</v>
+        <v>3.114175086688333</v>
       </c>
       <c r="R15">
-        <v>24.102107829196</v>
+        <v>18.68505052013</v>
       </c>
       <c r="S15">
-        <v>0.002556378738411642</v>
+        <v>0.001156307200006397</v>
       </c>
       <c r="T15">
-        <v>0.001788110079010473</v>
+        <v>0.0008288195115056303</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.09689233333333334</v>
+        <v>0.1066033333333333</v>
       </c>
       <c r="H16">
-        <v>0.290677</v>
+        <v>0.31981</v>
       </c>
       <c r="I16">
-        <v>0.0301097986249185</v>
+        <v>0.02084215510138645</v>
       </c>
       <c r="J16">
-        <v>0.03069729345037739</v>
+        <v>0.02199449439587765</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>13.54207483593211</v>
+        <v>18.28869843843555</v>
       </c>
       <c r="R16">
-        <v>121.878673523389</v>
+        <v>164.59828594592</v>
       </c>
       <c r="S16">
-        <v>0.008618002814497653</v>
+        <v>0.006790675891507832</v>
       </c>
       <c r="T16">
-        <v>0.00904205084833315</v>
+        <v>0.007301145415977837</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1847595</v>
+        <v>0.8039255000000001</v>
       </c>
       <c r="H17">
-        <v>0.369519</v>
+        <v>1.607851</v>
       </c>
       <c r="I17">
-        <v>0.05741497957224647</v>
+        <v>0.1571765106872173</v>
       </c>
       <c r="J17">
-        <v>0.03902349748514675</v>
+        <v>0.1105777486911175</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>0.7291856380759999</v>
+        <v>2.336887891948166</v>
       </c>
       <c r="R17">
-        <v>4.375113828456</v>
+        <v>14.021327351689</v>
       </c>
       <c r="S17">
-        <v>0.0004640443918206788</v>
+        <v>0.0008676969726647449</v>
       </c>
       <c r="T17">
-        <v>0.0003245851022209636</v>
+        <v>0.0006219490642408259</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1847595</v>
+        <v>0.8039255000000001</v>
       </c>
       <c r="H18">
-        <v>0.369519</v>
+        <v>1.607851</v>
       </c>
       <c r="I18">
-        <v>0.05741497957224647</v>
+        <v>0.1571765106872173</v>
       </c>
       <c r="J18">
-        <v>0.03902349748514675</v>
+        <v>0.1105777486911175</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>34.3288221416545</v>
+        <v>149.3715641395472</v>
       </c>
       <c r="R18">
-        <v>205.972932849927</v>
+        <v>896.2293848372831</v>
       </c>
       <c r="S18">
-        <v>0.02184642231116458</v>
+        <v>0.05546233281136691</v>
       </c>
       <c r="T18">
-        <v>0.01528091567104186</v>
+        <v>0.03975436941621181</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1847595</v>
+        <v>0.8039255000000001</v>
       </c>
       <c r="H19">
-        <v>0.369519</v>
+        <v>1.607851</v>
       </c>
       <c r="I19">
-        <v>0.05741497957224647</v>
+        <v>0.1571765106872173</v>
       </c>
       <c r="J19">
-        <v>0.03902349748514675</v>
+        <v>0.1105777486911175</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>21.6795733701145</v>
+        <v>110.1954419257043</v>
       </c>
       <c r="R19">
-        <v>130.077440220687</v>
+        <v>661.1726515542259</v>
       </c>
       <c r="S19">
-        <v>0.0137966025579045</v>
+        <v>0.04091606263605399</v>
       </c>
       <c r="T19">
-        <v>0.009650308743069446</v>
+        <v>0.02932787329055845</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1847595</v>
+        <v>0.8039255000000001</v>
       </c>
       <c r="H20">
-        <v>0.369519</v>
+        <v>1.607851</v>
       </c>
       <c r="I20">
-        <v>0.05741497957224647</v>
+        <v>0.1571765106872173</v>
       </c>
       <c r="J20">
-        <v>0.03902349748514675</v>
+        <v>0.1105777486911175</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>7.659865402953</v>
+        <v>23.48486379713075</v>
       </c>
       <c r="R20">
-        <v>30.639461611812</v>
+        <v>93.939455188523</v>
       </c>
       <c r="S20">
-        <v>0.004874640142008817</v>
+        <v>0.008720035432776425</v>
       </c>
       <c r="T20">
-        <v>0.002273109493650585</v>
+        <v>0.004166906226802912</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1847595</v>
+        <v>0.8039255000000001</v>
       </c>
       <c r="H21">
-        <v>0.369519</v>
+        <v>1.607851</v>
       </c>
       <c r="I21">
-        <v>0.05741497957224647</v>
+        <v>0.1571765106872173</v>
       </c>
       <c r="J21">
-        <v>0.03902349748514675</v>
+        <v>0.1105777486911175</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>25.8227549030305</v>
+        <v>137.9201810744053</v>
       </c>
       <c r="R21">
-        <v>154.936529418183</v>
+        <v>827.5210864464319</v>
       </c>
       <c r="S21">
-        <v>0.01643327016934789</v>
+        <v>0.05121038283435522</v>
       </c>
       <c r="T21">
-        <v>0.0114945784751639</v>
+        <v>0.03670665069330347</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.209608</v>
+        <v>0.09328633333333332</v>
       </c>
       <c r="H22">
-        <v>0.6288239999999999</v>
+        <v>0.279859</v>
       </c>
       <c r="I22">
-        <v>0.06513678072401927</v>
+        <v>0.01823853126706141</v>
       </c>
       <c r="J22">
-        <v>0.06640771322340643</v>
+        <v>0.01924691913053351</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>0.8272545835306666</v>
+        <v>0.271169036000111</v>
       </c>
       <c r="R22">
-        <v>7.445291251775999</v>
+        <v>2.440521324000999</v>
       </c>
       <c r="S22">
-        <v>0.0005264542114519082</v>
+        <v>0.0001006862812839344</v>
       </c>
       <c r="T22">
-        <v>0.0005523583423829228</v>
+        <v>0.0001082550828213393</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.209608</v>
+        <v>0.09328633333333332</v>
       </c>
       <c r="H23">
-        <v>0.6288239999999999</v>
+        <v>0.279859</v>
       </c>
       <c r="I23">
-        <v>0.06513678072401927</v>
+        <v>0.01823853126706141</v>
       </c>
       <c r="J23">
-        <v>0.06640771322340643</v>
+        <v>0.01924691913053351</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>38.94574163422133</v>
+        <v>17.33285674212744</v>
       </c>
       <c r="R23">
-        <v>350.511674707992</v>
+        <v>155.995710679147</v>
       </c>
       <c r="S23">
-        <v>0.02478457068675</v>
+        <v>0.006435767575584358</v>
       </c>
       <c r="T23">
-        <v>0.02600409320204705</v>
+        <v>0.006919557888418527</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.209608</v>
+        <v>0.09328633333333332</v>
       </c>
       <c r="H24">
-        <v>0.6288239999999999</v>
+        <v>0.279859</v>
       </c>
       <c r="I24">
-        <v>0.06513678072401927</v>
+        <v>0.01823853126706141</v>
       </c>
       <c r="J24">
-        <v>0.06640771322340643</v>
+        <v>0.01924691913053351</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>24.59528205566133</v>
+        <v>12.78691710524822</v>
       </c>
       <c r="R24">
-        <v>221.357538500952</v>
+        <v>115.082253947234</v>
       </c>
       <c r="S24">
-        <v>0.01565212218563725</v>
+        <v>0.004747839765941592</v>
       </c>
       <c r="T24">
-        <v>0.0164222834145251</v>
+        <v>0.005104744961580642</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.209608</v>
+        <v>0.09328633333333332</v>
       </c>
       <c r="H25">
-        <v>0.6288239999999999</v>
+        <v>0.279859</v>
       </c>
       <c r="I25">
-        <v>0.06513678072401927</v>
+        <v>0.01823853126706141</v>
       </c>
       <c r="J25">
-        <v>0.06640771322340643</v>
+        <v>0.01924691913053351</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>8.690048778991999</v>
+        <v>2.725149074717833</v>
       </c>
       <c r="R25">
-        <v>52.14029267395199</v>
+        <v>16.350894448307</v>
       </c>
       <c r="S25">
-        <v>0.005530235635440583</v>
+        <v>0.001011860094076452</v>
       </c>
       <c r="T25">
-        <v>0.003868233579965672</v>
+        <v>0.0007252825104607553</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.209608</v>
+        <v>0.09328633333333332</v>
       </c>
       <c r="H26">
-        <v>0.6288239999999999</v>
+        <v>0.279859</v>
       </c>
       <c r="I26">
-        <v>0.06513678072401927</v>
+        <v>0.01823853126706141</v>
       </c>
       <c r="J26">
-        <v>0.06640771322340643</v>
+        <v>0.01924691913053351</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>29.29568444228533</v>
+        <v>16.00405508358755</v>
       </c>
       <c r="R26">
-        <v>263.661159980568</v>
+        <v>144.036495752288</v>
       </c>
       <c r="S26">
-        <v>0.01864339800473952</v>
+        <v>0.005942377550175073</v>
       </c>
       <c r="T26">
-        <v>0.01956074468448568</v>
+        <v>0.006389078687252248</v>
       </c>
     </row>
   </sheetData>
